--- a/AggrFiles/STARR.SGLT2.xlsx
+++ b/AggrFiles/STARR.SGLT2.xlsx
@@ -347,7 +347,7 @@
     <t>STARR_072_combine_force13147</t>
   </si>
   <si>
-    <t>STARR_073_3_combine_force25760</t>
+    <t>STARR_073_3_combine_force27242</t>
   </si>
   <si>
     <t>STARR_075_combine_force18792</t>
@@ -362,7 +362,7 @@
     <t>STARR_080_force4270</t>
   </si>
   <si>
-    <t>STARR_081_2_combine_force9353</t>
+    <t>STARR_081_2_combine_force9252</t>
   </si>
   <si>
     <t>STARR_082_2_combine</t>
@@ -701,7 +701,7 @@
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_combine_force13147/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force25760/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force27242/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18792/outs/molecule_info.h5</t>
@@ -716,7 +716,7 @@
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force4270/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine_force9353/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine_force9252/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_082_2_combine/outs/molecule_info.h5</t>
@@ -896,7 +896,7 @@
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_combine_force13147/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force25760/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force27242/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18792/outs/metrics_summary.csv</t>
@@ -911,7 +911,7 @@
     <t>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force4270/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine_force9353/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine_force9252/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_082_2_combine/outs/metrics_summary.csv</t>
@@ -9533,19 +9533,19 @@
         <v>#N/A</v>
       </c>
       <c r="F39" t="n">
-        <v>356.0</v>
+        <v>360.0</v>
       </c>
       <c r="G39" t="s">
         <v>111</v>
       </c>
       <c r="H39" t="n">
-        <v>25760.0</v>
+        <v>27242.0</v>
       </c>
       <c r="I39" t="n">
-        <v>152128.0</v>
+        <v>143852.0</v>
       </c>
       <c r="J39" t="n">
-        <v>2776.0</v>
+        <v>2732.0</v>
       </c>
       <c r="K39" t="n">
         <v>3.918820996E9</v>
@@ -9590,13 +9590,13 @@
         <v>12.8</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.7</v>
+        <v>57.4</v>
       </c>
       <c r="Z39" t="n">
-        <v>29792.0</v>
+        <v>29827.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>5420.0</v>
+        <v>5281.0</v>
       </c>
       <c r="AB39" t="n">
         <v>131.0</v>
@@ -9620,7 +9620,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.0221011E7</v>
+        <v>2.0221013E7</v>
       </c>
       <c r="AJ39" t="s">
         <v>190</v>
@@ -10578,19 +10578,19 @@
         <v>#N/A</v>
       </c>
       <c r="F44" t="n">
-        <v>357.0</v>
+        <v>361.0</v>
       </c>
       <c r="G44" t="s">
         <v>116</v>
       </c>
       <c r="H44" t="n">
-        <v>9353.0</v>
+        <v>9252.0</v>
       </c>
       <c r="I44" t="n">
-        <v>119927.0</v>
+        <v>121236.0</v>
       </c>
       <c r="J44" t="n">
-        <v>2442.0</v>
+        <v>2451.0</v>
       </c>
       <c r="K44" t="n">
         <v>1.121674816E9</v>
@@ -10635,13 +10635,13 @@
         <v>19.2</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.4</v>
+        <v>74.2</v>
       </c>
       <c r="Z44" t="n">
-        <v>29054.0</v>
+        <v>29051.0</v>
       </c>
       <c r="AA44" t="n">
-        <v>5009.0</v>
+        <v>5037.0</v>
       </c>
       <c r="AB44" t="n">
         <v>141.0</v>
@@ -10665,7 +10665,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI44" t="n">
-        <v>2.0221011E7</v>
+        <v>2.0221013E7</v>
       </c>
       <c r="AJ44" t="s">
         <v>190</v>
